--- a/demo/py_outputs/villages/Shamanur_Source_Map.xlsx
+++ b/demo/py_outputs/villages/Shamanur_Source_Map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:M432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Distance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,6 +553,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M2" t="n">
+        <v>29.01557165291011</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -602,6 +610,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M3" t="n">
+        <v>28.23815054315299</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,6 +667,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M4" t="n">
+        <v>25.32351480608357</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -710,6 +724,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M5" t="n">
+        <v>27.83058100834561</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -764,6 +781,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M6" t="n">
+        <v>27.2648088148108</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -818,6 +838,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M7" t="n">
+        <v>27.85864748797005</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -872,6 +895,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M8" t="n">
+        <v>29.9721529695769</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -926,6 +952,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M9" t="n">
+        <v>22.32341082486695</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -980,6 +1009,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M10" t="n">
+        <v>24.79057726950631</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1034,6 +1066,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M11" t="n">
+        <v>22.09422686902869</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1088,6 +1123,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M12" t="n">
+        <v>20.41753292384247</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1142,6 +1180,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M13" t="n">
+        <v>21.68673844012504</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1196,6 +1237,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M14" t="n">
+        <v>19.0183419665946</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1250,6 +1294,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M15" t="n">
+        <v>18.39581844054726</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1304,6 +1351,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M16" t="n">
+        <v>16.62848487011985</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1358,6 +1408,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M17" t="n">
+        <v>29.3253367384347</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1409,8 +1462,11 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>28.14226811965357</v>
       </c>
     </row>
     <row r="19">
@@ -1466,6 +1522,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M19" t="n">
+        <v>25.87682130391217</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1520,6 +1579,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M20" t="n">
+        <v>27.40827114703764</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1574,6 +1636,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M21" t="n">
+        <v>23.4272780104967</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1628,6 +1693,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M22" t="n">
+        <v>24.52703434361658</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1682,6 +1750,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M23" t="n">
+        <v>25.88949222741736</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1736,6 +1807,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M24" t="n">
+        <v>27.9149961776559</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1790,6 +1864,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M25" t="n">
+        <v>29.36311683541711</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1844,6 +1921,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M26" t="n">
+        <v>27.27216246154694</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1898,6 +1978,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M27" t="n">
+        <v>24.20803267869627</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1952,6 +2035,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M28" t="n">
+        <v>23.82627322927521</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2006,6 +2092,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M29" t="n">
+        <v>22.97907121295313</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2060,6 +2149,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M30" t="n">
+        <v>18.85633480527247</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2114,6 +2206,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M31" t="n">
+        <v>16.40891743863128</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2168,6 +2263,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M32" t="n">
+        <v>20.11297970006934</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2222,6 +2320,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M33" t="n">
+        <v>21.19585794501291</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2276,6 +2377,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M34" t="n">
+        <v>25.75866125886606</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2330,6 +2434,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M35" t="n">
+        <v>26.63130174252224</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2384,6 +2491,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M36" t="n">
+        <v>29.74965307910902</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2438,6 +2548,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M37" t="n">
+        <v>29.58333369032167</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2492,6 +2605,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M38" t="n">
+        <v>29.56318624551712</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2546,6 +2662,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M39" t="n">
+        <v>28.55865905598165</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2600,6 +2719,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M40" t="n">
+        <v>28.90263425711849</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2654,6 +2776,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M41" t="n">
+        <v>16.60824111930294</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2708,6 +2833,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M42" t="n">
+        <v>14.49020819033771</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2762,6 +2890,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M43" t="n">
+        <v>27.81167776900908</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2816,6 +2947,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M44" t="n">
+        <v>29.14022634993378</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2870,6 +3004,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M45" t="n">
+        <v>29.90295857320786</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2924,6 +3061,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M46" t="n">
+        <v>27.77562233073673</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2978,6 +3118,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M47" t="n">
+        <v>29.54501211082352</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3032,6 +3175,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M48" t="n">
+        <v>29.40877067472953</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3086,6 +3232,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M49" t="n">
+        <v>29.04012128385163</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3140,6 +3289,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M50" t="n">
+        <v>28.67683230079805</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3194,6 +3346,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M51" t="n">
+        <v>27.70013958338943</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3248,6 +3403,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M52" t="n">
+        <v>29.77958592971749</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3302,6 +3460,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M53" t="n">
+        <v>23.65864941491189</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3356,6 +3517,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M54" t="n">
+        <v>22.88647220355206</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3410,6 +3574,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M55" t="n">
+        <v>21.53890731710369</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3464,6 +3631,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M56" t="n">
+        <v>19.09030066178895</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3518,6 +3688,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M57" t="n">
+        <v>18.00924196753972</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3572,6 +3745,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M58" t="n">
+        <v>17.2923199809334</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3626,6 +3802,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M59" t="n">
+        <v>18.65136219071382</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3680,6 +3859,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M60" t="n">
+        <v>21.52534319109163</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3734,6 +3916,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M61" t="n">
+        <v>24.02401330025643</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3788,6 +3973,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M62" t="n">
+        <v>27.78794334141115</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3842,6 +4030,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M63" t="n">
+        <v>25.36467512091159</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3896,6 +4087,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M64" t="n">
+        <v>26.29590832009767</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3950,6 +4144,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M65" t="n">
+        <v>26.53875504328294</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4004,6 +4201,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M66" t="n">
+        <v>26.27434885397326</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4058,6 +4258,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M67" t="n">
+        <v>27.26259807760934</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4112,6 +4315,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M68" t="n">
+        <v>23.31473243768588</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4166,6 +4372,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M69" t="n">
+        <v>19.87657975799922</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4220,6 +4429,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M70" t="n">
+        <v>19.62382116472671</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4274,6 +4486,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M71" t="n">
+        <v>22.97552486702464</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4328,6 +4543,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M72" t="n">
+        <v>23.70447269022316</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4382,6 +4600,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M73" t="n">
+        <v>24.94200014480963</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4436,6 +4657,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M74" t="n">
+        <v>26.67186192953494</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4490,6 +4714,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M75" t="n">
+        <v>28.63441503100987</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4544,6 +4771,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M76" t="n">
+        <v>29.69419774644191</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4598,6 +4828,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M77" t="n">
+        <v>29.97043444655182</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4652,6 +4885,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M78" t="n">
+        <v>25.75612123712344</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4706,6 +4942,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M79" t="n">
+        <v>21.89581915309405</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4760,6 +4999,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M80" t="n">
+        <v>20.8383575563313</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4814,6 +5056,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M81" t="n">
+        <v>17.1104375823585</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4868,6 +5113,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M82" t="n">
+        <v>14.02506549272417</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4922,6 +5170,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M83" t="n">
+        <v>12.01377121864385</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4976,6 +5227,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M84" t="n">
+        <v>11.85681608482794</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5030,6 +5284,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M85" t="n">
+        <v>14.49836671193023</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5081,8 +5338,11 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>16.09782166154985</v>
       </c>
     </row>
     <row r="87">
@@ -5138,6 +5398,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M87" t="n">
+        <v>21.25423122118288</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5192,6 +5455,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M88" t="n">
+        <v>23.4925967463979</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5246,6 +5512,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M89" t="n">
+        <v>23.73980940928351</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5300,6 +5569,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M90" t="n">
+        <v>22.07979931055232</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5354,6 +5626,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M91" t="n">
+        <v>21.32929168300143</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5408,6 +5683,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M92" t="n">
+        <v>20.30004806323748</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5462,6 +5740,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M93" t="n">
+        <v>17.46565886612366</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5516,6 +5797,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M94" t="n">
+        <v>13.46871083640641</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5570,6 +5854,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M95" t="n">
+        <v>14.0171458789277</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5624,6 +5911,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M96" t="n">
+        <v>15.06585647030975</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5678,6 +5968,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M97" t="n">
+        <v>18.11257643816926</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5732,6 +6025,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M98" t="n">
+        <v>17.16815647134115</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5786,6 +6082,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M99" t="n">
+        <v>16.25026731644045</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5840,6 +6139,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M100" t="n">
+        <v>14.5999565239082</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5894,6 +6196,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M101" t="n">
+        <v>14.12378034007829</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5948,6 +6253,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M102" t="n">
+        <v>14.31344539837859</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6002,6 +6310,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M103" t="n">
+        <v>14.75631595819429</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6056,6 +6367,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M104" t="n">
+        <v>14.98499150123748</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6110,6 +6424,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M105" t="n">
+        <v>16.12331106117333</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6164,6 +6481,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M106" t="n">
+        <v>18.16537027388996</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6218,6 +6538,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M107" t="n">
+        <v>13.64421848444092</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6272,6 +6595,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M108" t="n">
+        <v>13.18633369329828</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6326,6 +6652,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M109" t="n">
+        <v>12.26722222194035</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6380,6 +6709,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M110" t="n">
+        <v>12.0667146633356</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6434,6 +6766,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M111" t="n">
+        <v>11.55200733125061</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6488,6 +6823,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M112" t="n">
+        <v>11.64477753782165</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6542,6 +6880,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M113" t="n">
+        <v>15.0122332754349</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6596,6 +6937,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M114" t="n">
+        <v>16.23218717463207</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6650,6 +6994,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M115" t="n">
+        <v>18.81755975326803</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6704,6 +7051,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M116" t="n">
+        <v>21.52579558783959</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6758,6 +7108,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M117" t="n">
+        <v>19.18551968759922</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6812,6 +7165,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M118" t="n">
+        <v>18.04189306548373</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6866,6 +7222,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M119" t="n">
+        <v>17.05586561718437</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6920,6 +7279,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M120" t="n">
+        <v>16.28343745530767</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6974,6 +7336,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M121" t="n">
+        <v>15.21841441336253</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7028,6 +7393,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M122" t="n">
+        <v>16.21750719822134</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7082,6 +7450,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M123" t="n">
+        <v>13.28812684806693</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7136,6 +7507,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M124" t="n">
+        <v>12.58457206153327</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7190,6 +7564,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M125" t="n">
+        <v>13.2661374940262</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7244,6 +7621,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M126" t="n">
+        <v>12.40498796153213</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7298,6 +7678,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M127" t="n">
+        <v>8.081060432083786</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7352,6 +7735,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M128" t="n">
+        <v>10.16360782702061</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7406,6 +7792,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M129" t="n">
+        <v>9.90274219427333</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7457,8 +7846,11 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>9.356827686601086</v>
       </c>
     </row>
     <row r="131">
@@ -7514,6 +7906,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M131" t="n">
+        <v>8.209046346623165</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7568,6 +7963,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M132" t="n">
+        <v>11.07433992740479</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7622,6 +8020,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M133" t="n">
+        <v>9.304214284262128</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7676,6 +8077,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M134" t="n">
+        <v>9.030472198776165</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7730,6 +8134,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M135" t="n">
+        <v>6.181443819221025</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7784,6 +8191,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M136" t="n">
+        <v>4.059082630056446</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7838,6 +8248,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M137" t="n">
+        <v>13.33279926250348</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7892,6 +8305,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M138" t="n">
+        <v>10.43527622850563</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7946,6 +8362,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M139" t="n">
+        <v>14.29607986456358</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8000,6 +8419,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M140" t="n">
+        <v>29.72133117103925</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8054,6 +8476,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M141" t="n">
+        <v>25.14988456013413</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8108,6 +8533,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M142" t="n">
+        <v>28.77781581250203</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8162,6 +8590,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M143" t="n">
+        <v>26.97594455239566</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8216,6 +8647,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M144" t="n">
+        <v>28.74554053963677</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8270,6 +8704,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M145" t="n">
+        <v>27.75044695503763</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8324,6 +8761,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M146" t="n">
+        <v>28.29919079096538</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8378,6 +8818,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M147" t="n">
+        <v>23.58332016475355</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8432,6 +8875,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M148" t="n">
+        <v>24.06992081636031</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8486,6 +8932,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M149" t="n">
+        <v>22.82004069163556</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8540,6 +8989,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M150" t="n">
+        <v>20.65871677787549</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8594,6 +9046,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M151" t="n">
+        <v>18.45761082896385</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8648,6 +9103,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M152" t="n">
+        <v>17.36453152380878</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8702,6 +9160,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M153" t="n">
+        <v>27.3864589768316</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8756,6 +9217,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M154" t="n">
+        <v>25.61121738512417</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8810,6 +9274,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M155" t="n">
+        <v>28.90820622797018</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8864,6 +9331,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M156" t="n">
+        <v>29.94337419172357</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8918,6 +9388,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M157" t="n">
+        <v>28.95242405829013</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8972,6 +9445,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M158" t="n">
+        <v>26.2403947396025</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9026,6 +9502,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M159" t="n">
+        <v>22.60930284515787</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9080,6 +9559,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M160" t="n">
+        <v>22.64881037569963</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9134,6 +9616,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M161" t="n">
+        <v>20.34725732676319</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9185,8 +9670,11 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>19.04720568087254</v>
       </c>
     </row>
     <row r="163">
@@ -9239,8 +9727,11 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>14.37630722637016</v>
       </c>
     </row>
     <row r="164">
@@ -9293,8 +9784,11 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>12.51249548474271</v>
       </c>
     </row>
     <row r="165">
@@ -9350,6 +9844,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M165" t="n">
+        <v>13.01382228719378</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9404,6 +9901,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M166" t="n">
+        <v>15.88266343018751</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9458,6 +9958,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M167" t="n">
+        <v>19.06651548355178</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9512,6 +10015,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M168" t="n">
+        <v>24.29338771874839</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9566,6 +10072,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M169" t="n">
+        <v>18.56164181081151</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9620,6 +10129,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M170" t="n">
+        <v>28.83157443517389</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9674,6 +10186,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M171" t="n">
+        <v>29.11402773569869</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9728,6 +10243,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M172" t="n">
+        <v>27.14592190295904</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9782,6 +10300,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M173" t="n">
+        <v>26.71915937997136</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9836,6 +10357,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M174" t="n">
+        <v>27.87615032955408</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9890,6 +10414,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M175" t="n">
+        <v>27.49106705300934</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9944,6 +10471,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M176" t="n">
+        <v>24.92602938387877</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9998,6 +10528,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M177" t="n">
+        <v>25.12425941304217</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10052,6 +10585,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M178" t="n">
+        <v>27.08860594827129</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10106,6 +10642,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M179" t="n">
+        <v>28.39467049971602</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10160,6 +10699,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M180" t="n">
+        <v>28.5543412823976</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10214,6 +10756,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M181" t="n">
+        <v>9.190805811717446</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10268,6 +10813,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M182" t="n">
+        <v>8.52990225263181</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10322,6 +10870,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M183" t="n">
+        <v>7.077502965390496</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10376,6 +10927,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M184" t="n">
+        <v>5.796364358468827</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10430,6 +10984,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M185" t="n">
+        <v>7.018697329600269</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10484,6 +11041,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M186" t="n">
+        <v>10.6012604377903</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10538,6 +11098,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M187" t="n">
+        <v>9.714715536374952</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10592,6 +11155,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M188" t="n">
+        <v>10.65620256548388</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10646,6 +11212,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M189" t="n">
+        <v>11.41891676307329</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10700,6 +11269,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M190" t="n">
+        <v>9.097051462180584</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10754,6 +11326,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M191" t="n">
+        <v>7.548306467433608</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10808,6 +11383,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M192" t="n">
+        <v>5.931416275412028</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10862,6 +11440,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M193" t="n">
+        <v>7.034628358109841</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10916,6 +11497,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M194" t="n">
+        <v>10.4233428793583</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10970,6 +11554,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M195" t="n">
+        <v>8.910315626476709</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11024,6 +11611,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M196" t="n">
+        <v>6.714556002781842</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11078,6 +11668,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M197" t="n">
+        <v>10.0818044241137</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11129,8 +11722,11 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>11.83701089301623</v>
       </c>
     </row>
     <row r="199">
@@ -11186,6 +11782,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M199" t="n">
+        <v>8.465412375916809</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -11240,6 +11839,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M200" t="n">
+        <v>7.059918940513795</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11294,6 +11896,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M201" t="n">
+        <v>7.550407454561213</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11348,6 +11953,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M202" t="n">
+        <v>8.740250582804098</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11402,6 +12010,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M203" t="n">
+        <v>4.141910511814975</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11456,6 +12067,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M204" t="n">
+        <v>3.892264093519035</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11510,6 +12124,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M205" t="n">
+        <v>6.121048619767611</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11564,6 +12181,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M206" t="n">
+        <v>7.512033265608782</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11618,6 +12238,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M207" t="n">
+        <v>6.234742725241785</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11669,8 +12292,11 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>6.39311637022151</v>
       </c>
     </row>
     <row r="209">
@@ -11726,6 +12352,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M209" t="n">
+        <v>8.110672007456849</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11780,6 +12409,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M210" t="n">
+        <v>9.826685074701521</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11831,8 +12463,11 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>8.574526032939266</v>
       </c>
     </row>
     <row r="212">
@@ -11888,6 +12523,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M212" t="n">
+        <v>9.215869616928705</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11942,6 +12580,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M213" t="n">
+        <v>10.26769698263151</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11996,6 +12637,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M214" t="n">
+        <v>11.72311991601812</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12050,6 +12694,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M215" t="n">
+        <v>13.47338407489689</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12104,6 +12751,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M216" t="n">
+        <v>10.7475766962945</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -12158,6 +12808,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M217" t="n">
+        <v>12.46248155508602</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12212,6 +12865,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M218" t="n">
+        <v>13.96606796245024</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12263,8 +12919,11 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>13.28665910544795</v>
       </c>
     </row>
     <row r="220">
@@ -12320,6 +12979,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M220" t="n">
+        <v>13.6433626446686</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12374,6 +13036,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M221" t="n">
+        <v>11.62457002394307</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12428,6 +13093,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M222" t="n">
+        <v>10.0034776968784</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12482,6 +13150,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M223" t="n">
+        <v>8.900200841662885</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12536,6 +13207,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M224" t="n">
+        <v>8.235126521531773</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12590,6 +13264,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M225" t="n">
+        <v>10.51053930306379</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12644,6 +13321,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M226" t="n">
+        <v>12.8163301648917</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12698,6 +13378,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M227" t="n">
+        <v>7.850433431940544</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12752,6 +13435,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M228" t="n">
+        <v>9.189268047888312</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12806,6 +13492,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M229" t="n">
+        <v>11.22610365658891</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12857,8 +13546,11 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>8.581453320218589</v>
       </c>
     </row>
     <row r="231">
@@ -12914,6 +13606,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M231" t="n">
+        <v>9.805765720792719</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12968,6 +13663,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M232" t="n">
+        <v>11.00754394063501</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -13022,6 +13720,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M233" t="n">
+        <v>12.55458096742605</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -13076,6 +13777,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M234" t="n">
+        <v>14.31194488925021</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -13127,8 +13831,11 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>16.18985176753673</v>
       </c>
     </row>
     <row r="236">
@@ -13181,8 +13888,11 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>18.18866632575215</v>
       </c>
     </row>
     <row r="237">
@@ -13235,8 +13945,11 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>19.22135328826166</v>
       </c>
     </row>
     <row r="238">
@@ -13289,8 +14002,11 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>21.9638818419977</v>
       </c>
     </row>
     <row r="239">
@@ -13346,6 +14062,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M239" t="n">
+        <v>24.26596669759071</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13400,6 +14119,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M240" t="n">
+        <v>24.29813735041981</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13454,6 +14176,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M241" t="n">
+        <v>22.59945128322547</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13508,6 +14233,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M242" t="n">
+        <v>23.31475420009325</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13562,6 +14290,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M243" t="n">
+        <v>22.19447325212516</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13616,6 +14347,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M244" t="n">
+        <v>20.11501006803879</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13670,6 +14404,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M245" t="n">
+        <v>17.42039639229606</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13724,6 +14461,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M246" t="n">
+        <v>15.8614793718219</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13778,6 +14518,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M247" t="n">
+        <v>14.54219468552862</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13832,6 +14575,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M248" t="n">
+        <v>14.02557972646948</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13886,6 +14632,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M249" t="n">
+        <v>12.40490708785286</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13940,6 +14689,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M250" t="n">
+        <v>10.54217781387775</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13994,6 +14746,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M251" t="n">
+        <v>8.797146438746484</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -14048,6 +14803,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M252" t="n">
+        <v>6.351615313949814</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -14102,6 +14860,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M253" t="n">
+        <v>7.993953519554087</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -14156,6 +14917,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M254" t="n">
+        <v>9.352117419892357</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14210,6 +14974,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M255" t="n">
+        <v>11.3296753719087</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -14264,6 +15031,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M256" t="n">
+        <v>10.39180351697087</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -14315,8 +15085,11 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>11.45299179531668</v>
       </c>
     </row>
     <row r="258">
@@ -14369,8 +15142,11 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>12.71829043182043</v>
       </c>
     </row>
     <row r="259">
@@ -14426,6 +15202,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M259" t="n">
+        <v>14.1796664555543</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -14477,8 +15256,11 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
+        <v>13.37197457966296</v>
       </c>
     </row>
     <row r="261">
@@ -14534,6 +15316,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M261" t="n">
+        <v>12.64812747360225</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14588,6 +15373,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M262" t="n">
+        <v>14.81574801603585</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14642,6 +15430,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M263" t="n">
+        <v>13.88393101787937</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -14696,6 +15487,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M264" t="n">
+        <v>15.50626454474586</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14750,6 +15544,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M265" t="n">
+        <v>17.26290074632395</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -14804,6 +15601,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M266" t="n">
+        <v>17.68380320858686</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -14855,8 +15655,11 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M267" t="n">
+        <v>17.344899464393</v>
       </c>
     </row>
     <row r="268">
@@ -14912,6 +15715,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M268" t="n">
+        <v>18.31535967323003</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -14966,6 +15772,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M269" t="n">
+        <v>16.54729922343715</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -15020,6 +15829,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M270" t="n">
+        <v>16.91406606414507</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -15074,6 +15886,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M271" t="n">
+        <v>17.85509570851633</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -15128,6 +15943,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M272" t="n">
+        <v>20.07195338438138</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -15182,6 +16000,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M273" t="n">
+        <v>19.92755538442724</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -15236,6 +16057,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M274" t="n">
+        <v>22.02378164317575</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -15290,6 +16114,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M275" t="n">
+        <v>20.43298635060979</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -15344,6 +16171,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M276" t="n">
+        <v>19.06734017576595</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -15398,6 +16228,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M277" t="n">
+        <v>21.85836391692103</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -15452,6 +16285,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M278" t="n">
+        <v>23.52280766554595</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -15506,6 +16342,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M279" t="n">
+        <v>25.16324164442988</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -15560,6 +16399,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M280" t="n">
+        <v>25.600999324952</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -15614,6 +16456,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M281" t="n">
+        <v>26.06910599399712</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -15668,6 +16513,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M282" t="n">
+        <v>27.48477483412187</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -15722,6 +16570,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M283" t="n">
+        <v>28.08189841486497</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -15776,6 +16627,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M284" t="n">
+        <v>24.78139492926142</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -15830,6 +16684,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M285" t="n">
+        <v>22.43533354399822</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -15884,6 +16741,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M286" t="n">
+        <v>21.56104703954526</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -15938,6 +16798,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M287" t="n">
+        <v>23.08321405961116</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -15992,6 +16855,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M288" t="n">
+        <v>25.22990006208083</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -16046,6 +16912,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M289" t="n">
+        <v>24.89873010077361</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -16100,6 +16969,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M290" t="n">
+        <v>23.21157134617624</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -16154,6 +17026,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M291" t="n">
+        <v>25.45950459814915</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -16208,6 +17083,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M292" t="n">
+        <v>13.20388237408013</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -16262,6 +17140,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M293" t="n">
+        <v>11.09859914059707</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -16316,6 +17197,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M294" t="n">
+        <v>12.00071294903238</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -16370,6 +17254,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M295" t="n">
+        <v>14.85640057901283</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -16424,6 +17311,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M296" t="n">
+        <v>15.06879036081151</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -16478,6 +17368,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M297" t="n">
+        <v>13.49273526271306</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -16532,6 +17425,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M298" t="n">
+        <v>14.07559363472829</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -16586,6 +17482,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M299" t="n">
+        <v>15.0006088775313</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -16640,6 +17539,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M300" t="n">
+        <v>16.18187855862656</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -16694,6 +17596,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M301" t="n">
+        <v>18.09650567552668</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -16748,6 +17653,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M302" t="n">
+        <v>18.79292738310418</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -16802,6 +17710,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M303" t="n">
+        <v>20.53150200648716</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -16856,6 +17767,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M304" t="n">
+        <v>22.14004545172675</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -16910,6 +17824,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M305" t="n">
+        <v>23.51499959532267</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -16964,6 +17881,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M306" t="n">
+        <v>23.3628210437692</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -17018,6 +17938,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M307" t="n">
+        <v>24.72003666952235</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -17072,6 +17995,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M308" t="n">
+        <v>26.09009071944811</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -17126,6 +18052,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M309" t="n">
+        <v>27.53378184853986</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -17180,6 +18109,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M310" t="n">
+        <v>28.28977639113049</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -17234,6 +18166,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M311" t="n">
+        <v>28.73532496348388</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -17288,6 +18223,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M312" t="n">
+        <v>28.03755710574995</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -17342,6 +18280,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M313" t="n">
+        <v>26.65226419963762</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -17396,6 +18337,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M314" t="n">
+        <v>26.21427131427869</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -17450,6 +18394,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M315" t="n">
+        <v>23.7210779364405</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -17504,6 +18451,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M316" t="n">
+        <v>20.73921445423604</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -17558,6 +18508,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M317" t="n">
+        <v>18.67272917141589</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -17612,6 +18565,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M318" t="n">
+        <v>18.01658452177051</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -17666,6 +18622,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M319" t="n">
+        <v>16.91358420937943</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -17720,6 +18679,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M320" t="n">
+        <v>16.96062487727041</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -17774,6 +18736,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M321" t="n">
+        <v>18.55321341488064</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -17828,6 +18793,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M322" t="n">
+        <v>17.31444220872664</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -17882,6 +18850,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M323" t="n">
+        <v>16.05282464055785</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -17933,8 +18904,11 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M324" t="n">
+        <v>13.70770564949123</v>
       </c>
     </row>
     <row r="325">
@@ -17990,6 +18964,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M325" t="n">
+        <v>15.04201399131484</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -18041,8 +19018,11 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M326" t="n">
+        <v>14.91972586866348</v>
       </c>
     </row>
     <row r="327">
@@ -18095,8 +19075,11 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M327" t="n">
+        <v>16.16854761880703</v>
       </c>
     </row>
     <row r="328">
@@ -18152,6 +19135,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M328" t="n">
+        <v>18.43370330779285</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -18206,6 +19192,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M329" t="n">
+        <v>18.10180550608014</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -18260,6 +19249,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M330" t="n">
+        <v>20.03108682628343</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -18314,6 +19306,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M331" t="n">
+        <v>22.49634084436254</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -18368,6 +19363,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M332" t="n">
+        <v>22.19318789730733</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -18422,6 +19420,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M333" t="n">
+        <v>18.10298604769717</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -18476,6 +19477,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M334" t="n">
+        <v>20.32155892040744</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -18530,6 +19534,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M335" t="n">
+        <v>20.07231551405017</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -18584,6 +19591,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M336" t="n">
+        <v>22.21389978701247</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -18638,6 +19648,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M337" t="n">
+        <v>22.80458583445547</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -18692,6 +19705,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M338" t="n">
+        <v>24.2266500915782</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -18746,6 +19762,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M339" t="n">
+        <v>25.47437370668326</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -18800,6 +19819,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M340" t="n">
+        <v>25.23104262834044</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -18854,6 +19876,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M341" t="n">
+        <v>24.39283918269975</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -18908,6 +19933,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M342" t="n">
+        <v>25.20099889992861</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -18962,6 +19990,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M343" t="n">
+        <v>27.12350093681112</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -19016,6 +20047,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M344" t="n">
+        <v>29.34544228018299</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -19070,6 +20104,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M345" t="n">
+        <v>28.73020741978037</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -19124,6 +20161,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M346" t="n">
+        <v>28.90963141383409</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -19178,6 +20218,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M347" t="n">
+        <v>27.92236185289189</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -19232,6 +20275,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M348" t="n">
+        <v>26.91282622798886</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -19286,6 +20332,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M349" t="n">
+        <v>29.66864268080341</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -19340,6 +20389,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M350" t="n">
+        <v>27.29928450272929</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -19394,6 +20446,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M351" t="n">
+        <v>27.57965443760916</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -19448,6 +20503,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M352" t="n">
+        <v>29.68987411853908</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -19502,6 +20560,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M353" t="n">
+        <v>27.00332660235218</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -19556,6 +20617,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M354" t="n">
+        <v>25.73377613498367</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -19610,6 +20674,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M355" t="n">
+        <v>24.69369565760926</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -19664,6 +20731,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M356" t="n">
+        <v>24.83749949674678</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -19718,6 +20788,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M357" t="n">
+        <v>23.43339255615624</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -19772,6 +20845,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M358" t="n">
+        <v>21.60660143864262</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -19826,6 +20902,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M359" t="n">
+        <v>21.71404851758977</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -19880,6 +20959,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M360" t="n">
+        <v>19.84769494049745</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -19934,6 +21016,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M361" t="n">
+        <v>18.57055045917128</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -19988,6 +21073,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M362" t="n">
+        <v>16.62720193142289</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -20039,8 +21127,11 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M363" t="n">
+        <v>15.69208902305579</v>
       </c>
     </row>
     <row r="364">
@@ -20096,6 +21187,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M364" t="n">
+        <v>17.44230572905864</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -20150,6 +21244,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M365" t="n">
+        <v>17.43120602955106</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -20204,6 +21301,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M366" t="n">
+        <v>19.76849011769208</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -20258,6 +21358,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M367" t="n">
+        <v>22.18107974109177</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -20312,6 +21415,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M368" t="n">
+        <v>24.54692994500114</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -20366,6 +21472,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M369" t="n">
+        <v>29.79746028293622</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -20420,6 +21529,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M370" t="n">
+        <v>28.72527743546976</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -20474,6 +21586,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M371" t="n">
+        <v>27.79732501179786</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -20528,6 +21643,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M372" t="n">
+        <v>25.58710413178884</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -20582,6 +21700,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M373" t="n">
+        <v>23.43375040050964</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -20636,6 +21757,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M374" t="n">
+        <v>22.54512075861708</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -20690,6 +21814,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M375" t="n">
+        <v>24.33728383084904</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -20744,6 +21871,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M376" t="n">
+        <v>24.76667481482178</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -20798,6 +21928,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M377" t="n">
+        <v>24.10865998742651</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -20852,6 +21985,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M378" t="n">
+        <v>25.75586138446224</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -20906,6 +22042,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M379" t="n">
+        <v>26.66318713595646</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -20960,6 +22099,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M380" t="n">
+        <v>27.20683684154607</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -21014,6 +22156,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M381" t="n">
+        <v>28.10904746875245</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -21068,6 +22213,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M382" t="n">
+        <v>28.90492931409607</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -21122,6 +22270,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M383" t="n">
+        <v>29.74500476889612</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -21176,6 +22327,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M384" t="n">
+        <v>28.72466878687774</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -21230,6 +22384,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M385" t="n">
+        <v>27.92389337596325</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -21284,6 +22441,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M386" t="n">
+        <v>26.54569190142819</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -21338,6 +22498,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M387" t="n">
+        <v>24.85621525148597</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -21392,6 +22555,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M388" t="n">
+        <v>25.93842170211142</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -21446,6 +22612,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M389" t="n">
+        <v>27.45367501965164</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -21500,6 +22669,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M390" t="n">
+        <v>29.28164347669486</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -21554,6 +22726,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M391" t="n">
+        <v>29.05850165332697</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -21608,6 +22783,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M392" t="n">
+        <v>21.82463423533693</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -21662,6 +22840,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M393" t="n">
+        <v>19.41086674927231</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -21713,8 +22894,11 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Yet-To-Visit</t>
-        </is>
+          <t>Visited</t>
+        </is>
+      </c>
+      <c r="M394" t="n">
+        <v>16.27429587145884</v>
       </c>
     </row>
     <row r="395">
@@ -21770,6 +22954,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M395" t="n">
+        <v>18.37106965895877</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -21824,6 +23011,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M396" t="n">
+        <v>19.02220171862963</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -21878,6 +23068,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M397" t="n">
+        <v>19.6400603003574</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -21932,6 +23125,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M398" t="n">
+        <v>20.70919833364033</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -21986,6 +23182,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M399" t="n">
+        <v>20.39688699414291</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -22040,6 +23239,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M400" t="n">
+        <v>22.24057941833041</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -22094,6 +23296,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M401" t="n">
+        <v>20.16183473863287</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -22148,6 +23353,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M402" t="n">
+        <v>23.05580039147063</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -22202,6 +23410,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M403" t="n">
+        <v>25.53718632870844</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -22256,6 +23467,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M404" t="n">
+        <v>25.95266457594777</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -22310,6 +23524,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M405" t="n">
+        <v>25.00653545116736</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -22364,6 +23581,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M406" t="n">
+        <v>26.31361564663016</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -22418,6 +23638,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M407" t="n">
+        <v>27.14156662230956</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -22472,6 +23695,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M408" t="n">
+        <v>28.47198456498351</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -22526,6 +23752,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M409" t="n">
+        <v>28.90429996572718</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -22580,6 +23809,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M410" t="n">
+        <v>29.94948049262684</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -22634,6 +23866,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M411" t="n">
+        <v>27.46004784017714</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -22688,6 +23923,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M412" t="n">
+        <v>26.70866692564745</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -22742,6 +23980,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M413" t="n">
+        <v>25.36340936948148</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -22796,6 +24037,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M414" t="n">
+        <v>23.47824476412022</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -22850,6 +24094,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M415" t="n">
+        <v>24.04323844564812</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -22904,6 +24151,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M416" t="n">
+        <v>25.09005794492008</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -22958,6 +24208,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M417" t="n">
+        <v>25.96947597525758</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -23012,6 +24265,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M418" t="n">
+        <v>23.70927398536311</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -23066,6 +24322,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M419" t="n">
+        <v>25.26299887857524</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -23120,6 +24379,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M420" t="n">
+        <v>26.12617169785979</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -23174,6 +24436,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M421" t="n">
+        <v>27.91787377505642</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -23228,6 +24493,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M422" t="n">
+        <v>28.64772377559144</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -23282,6 +24550,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M423" t="n">
+        <v>29.57567486484775</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -23336,6 +24607,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M424" t="n">
+        <v>27.98804270356511</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -23390,6 +24664,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M425" t="n">
+        <v>28.25299089480297</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -23444,6 +24721,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M426" t="n">
+        <v>29.20990780693462</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -23498,6 +24778,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M427" t="n">
+        <v>29.00856658832842</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -23552,6 +24835,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M428" t="n">
+        <v>27.20882642235396</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -23606,6 +24892,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M429" t="n">
+        <v>28.64580304996252</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -23660,6 +24949,9 @@
           <t>Yet-To-Visit</t>
         </is>
       </c>
+      <c r="M430" t="n">
+        <v>29.28736911724523</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -23714,6 +25006,9 @@
           <t>Visited</t>
         </is>
       </c>
+      <c r="M431" t="n">
+        <v>12.50059282201415</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -23767,6 +25062,9 @@
         <is>
           <t>Visited</t>
         </is>
+      </c>
+      <c r="M432" t="n">
+        <v>0.6173929487237559</v>
       </c>
     </row>
   </sheetData>
